--- a/dados/PEDIDOS_DIA.xlsx
+++ b/dados/PEDIDOS_DIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Dashboard_Sauipe\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAC909B-8F8A-4353-B32E-9D7F24D36222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003BDE5D-5FAB-4209-8230-D2D00BA08D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BAE7E909-A9ED-4488-BF07-0D01A6757217}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BAE7E909-A9ED-4488-BF07-0D01A6757217}"/>
   </bookViews>
   <sheets>
     <sheet name="HISTOGRAMA" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="103">
   <si>
     <t>PERFORMANCE</t>
   </si>
@@ -326,6 +326,30 @@
   </si>
   <si>
     <t>14/02</t>
+  </si>
+  <si>
+    <t>15/02</t>
+  </si>
+  <si>
+    <t>16/02</t>
+  </si>
+  <si>
+    <t>17/02</t>
+  </si>
+  <si>
+    <t>18/02</t>
+  </si>
+  <si>
+    <t>19/02</t>
+  </si>
+  <si>
+    <t>20/02</t>
+  </si>
+  <si>
+    <t>21/02</t>
+  </si>
+  <si>
+    <t>22/02</t>
   </si>
 </sst>
 </file>
@@ -701,14 +725,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C37815-C5A2-4226-9F37-0720A4C4980B}">
-  <dimension ref="A1:Q127"/>
+  <dimension ref="A1:Y127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D3" sqref="D3:AB3"/>
       <selection pane="topRight" activeCell="D3" sqref="D3:AB3"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3:AB3"/>
-      <selection pane="bottomRight" activeCell="R1" sqref="R1:R1048576"/>
+      <selection pane="bottomRight" activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,10 +741,10 @@
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="25" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -772,8 +796,32 @@
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -819,8 +867,32 @@
       <c r="Q2" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R2" s="1">
+        <v>15</v>
+      </c>
+      <c r="S2" s="1">
+        <v>16</v>
+      </c>
+      <c r="T2" s="1">
+        <v>17</v>
+      </c>
+      <c r="U2" s="1">
+        <v>18</v>
+      </c>
+      <c r="V2" s="1">
+        <v>19</v>
+      </c>
+      <c r="W2" s="1">
+        <v>20</v>
+      </c>
+      <c r="X2" s="1">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -882,8 +954,32 @@
         <f t="shared" si="0"/>
         <v>322</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R3" s="3">
+        <v>456</v>
+      </c>
+      <c r="S3" s="3">
+        <v>286</v>
+      </c>
+      <c r="T3" s="3">
+        <v>265</v>
+      </c>
+      <c r="U3" s="3">
+        <v>250</v>
+      </c>
+      <c r="V3" s="3">
+        <v>273</v>
+      </c>
+      <c r="W3" s="3">
+        <v>253</v>
+      </c>
+      <c r="X3" s="3">
+        <v>235</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,8 +1031,32 @@
       <c r="Q4" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -985,8 +1105,32 @@
       <c r="Q5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1035,8 +1179,32 @@
       <c r="Q6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" s="4">
+        <v>1</v>
+      </c>
+      <c r="S6" s="4">
+        <v>2</v>
+      </c>
+      <c r="T6" s="4">
+        <v>1</v>
+      </c>
+      <c r="U6" s="4">
+        <v>1</v>
+      </c>
+      <c r="V6" s="4">
+        <v>2</v>
+      </c>
+      <c r="W6" s="4">
+        <v>1</v>
+      </c>
+      <c r="X6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1085,8 +1253,32 @@
       <c r="Q7" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1135,8 +1327,32 @@
       <c r="Q8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" s="4">
+        <v>1</v>
+      </c>
+      <c r="S8" s="4">
+        <v>2</v>
+      </c>
+      <c r="T8" s="4">
+        <v>2</v>
+      </c>
+      <c r="U8" s="4">
+        <v>2</v>
+      </c>
+      <c r="V8" s="4">
+        <v>2</v>
+      </c>
+      <c r="W8" s="4">
+        <v>2</v>
+      </c>
+      <c r="X8" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1185,8 +1401,32 @@
       <c r="Q9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>1</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>1</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>1</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1235,8 +1475,32 @@
       <c r="Q10" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10" s="4">
+        <v>1</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <v>1</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1285,8 +1549,32 @@
       <c r="Q11" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1335,8 +1623,32 @@
       <c r="Q12" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1385,8 +1697,32 @@
       <c r="Q13" s="4">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13" s="4">
+        <v>44</v>
+      </c>
+      <c r="S13" s="4">
+        <v>18</v>
+      </c>
+      <c r="T13" s="4">
+        <v>21</v>
+      </c>
+      <c r="U13" s="4">
+        <v>13</v>
+      </c>
+      <c r="V13" s="4">
+        <v>14</v>
+      </c>
+      <c r="W13" s="4">
+        <v>12</v>
+      </c>
+      <c r="X13" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1435,8 +1771,32 @@
       <c r="Q14" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14" s="4">
+        <v>1</v>
+      </c>
+      <c r="S14" s="4">
+        <v>6</v>
+      </c>
+      <c r="T14" s="4">
+        <v>8</v>
+      </c>
+      <c r="U14" s="4">
+        <v>8</v>
+      </c>
+      <c r="V14" s="4">
+        <v>8</v>
+      </c>
+      <c r="W14" s="4">
+        <v>8</v>
+      </c>
+      <c r="X14" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1485,8 +1845,32 @@
       <c r="Q15" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15" s="4">
+        <v>3</v>
+      </c>
+      <c r="S15" s="4">
+        <v>3</v>
+      </c>
+      <c r="T15" s="4">
+        <v>3</v>
+      </c>
+      <c r="U15" s="4">
+        <v>3</v>
+      </c>
+      <c r="V15" s="4">
+        <v>3</v>
+      </c>
+      <c r="W15" s="4">
+        <v>3</v>
+      </c>
+      <c r="X15" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1535,8 +1919,32 @@
       <c r="Q16" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16" s="4">
+        <v>38</v>
+      </c>
+      <c r="S16" s="4">
+        <v>32</v>
+      </c>
+      <c r="T16" s="4">
+        <v>32</v>
+      </c>
+      <c r="U16" s="4">
+        <v>29</v>
+      </c>
+      <c r="V16" s="4">
+        <v>28</v>
+      </c>
+      <c r="W16" s="4">
+        <v>27</v>
+      </c>
+      <c r="X16" s="4">
+        <v>25</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1585,8 +1993,32 @@
       <c r="Q17" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17" s="4">
+        <v>5</v>
+      </c>
+      <c r="S17" s="4">
+        <v>4</v>
+      </c>
+      <c r="T17" s="4">
+        <v>6</v>
+      </c>
+      <c r="U17" s="4">
+        <v>4</v>
+      </c>
+      <c r="V17" s="4">
+        <v>6</v>
+      </c>
+      <c r="W17" s="4">
+        <v>4</v>
+      </c>
+      <c r="X17" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1635,8 +2067,32 @@
       <c r="Q18" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18" s="4">
+        <v>7</v>
+      </c>
+      <c r="S18" s="4">
+        <v>7</v>
+      </c>
+      <c r="T18" s="4">
+        <v>7</v>
+      </c>
+      <c r="U18" s="4">
+        <v>7</v>
+      </c>
+      <c r="V18" s="4">
+        <v>7</v>
+      </c>
+      <c r="W18" s="4">
+        <v>5</v>
+      </c>
+      <c r="X18" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1685,8 +2141,32 @@
       <c r="Q19" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R19" s="4">
+        <v>1</v>
+      </c>
+      <c r="S19" s="4">
+        <v>1</v>
+      </c>
+      <c r="T19" s="4">
+        <v>1</v>
+      </c>
+      <c r="U19" s="4">
+        <v>1</v>
+      </c>
+      <c r="V19" s="4">
+        <v>1</v>
+      </c>
+      <c r="W19" s="4">
+        <v>1</v>
+      </c>
+      <c r="X19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1735,8 +2215,32 @@
       <c r="Q20" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R20" s="4">
+        <v>2</v>
+      </c>
+      <c r="S20" s="4">
+        <v>3</v>
+      </c>
+      <c r="T20" s="4">
+        <v>2</v>
+      </c>
+      <c r="U20" s="4">
+        <v>2</v>
+      </c>
+      <c r="V20" s="4">
+        <v>1</v>
+      </c>
+      <c r="W20" s="4">
+        <v>2</v>
+      </c>
+      <c r="X20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1785,8 +2289,32 @@
       <c r="Q21" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21" s="4">
+        <v>1</v>
+      </c>
+      <c r="S21" s="4">
+        <v>1</v>
+      </c>
+      <c r="T21" s="4">
+        <v>1</v>
+      </c>
+      <c r="U21" s="4">
+        <v>1</v>
+      </c>
+      <c r="V21" s="4">
+        <v>1</v>
+      </c>
+      <c r="W21" s="4">
+        <v>1</v>
+      </c>
+      <c r="X21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1835,8 +2363,32 @@
       <c r="Q22" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22" s="4">
+        <v>1</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0</v>
+      </c>
+      <c r="U22" s="4">
+        <v>0</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0</v>
+      </c>
+      <c r="X22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1885,8 +2437,32 @@
       <c r="Q23" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="T23" s="4">
+        <v>0</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+      <c r="W23" s="4">
+        <v>0</v>
+      </c>
+      <c r="X23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1935,8 +2511,32 @@
       <c r="Q24" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R24" s="4">
+        <v>14</v>
+      </c>
+      <c r="S24" s="4">
+        <v>5</v>
+      </c>
+      <c r="T24" s="4">
+        <v>6</v>
+      </c>
+      <c r="U24" s="4">
+        <v>4</v>
+      </c>
+      <c r="V24" s="4">
+        <v>6</v>
+      </c>
+      <c r="W24" s="4">
+        <v>4</v>
+      </c>
+      <c r="X24" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -1985,8 +2585,32 @@
       <c r="Q25" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0</v>
+      </c>
+      <c r="T25" s="4">
+        <v>0</v>
+      </c>
+      <c r="U25" s="4">
+        <v>0</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0</v>
+      </c>
+      <c r="W25" s="4">
+        <v>0</v>
+      </c>
+      <c r="X25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -2035,8 +2659,32 @@
       <c r="Q26" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R26" s="4">
+        <v>12</v>
+      </c>
+      <c r="S26" s="4">
+        <v>4</v>
+      </c>
+      <c r="T26" s="4">
+        <v>5</v>
+      </c>
+      <c r="U26" s="4">
+        <v>4</v>
+      </c>
+      <c r="V26" s="4">
+        <v>4</v>
+      </c>
+      <c r="W26" s="4">
+        <v>4</v>
+      </c>
+      <c r="X26" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -2085,8 +2733,32 @@
       <c r="Q27" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R27" s="4">
+        <v>7</v>
+      </c>
+      <c r="S27" s="4">
+        <v>1</v>
+      </c>
+      <c r="T27" s="4">
+        <v>1</v>
+      </c>
+      <c r="U27" s="4">
+        <v>1</v>
+      </c>
+      <c r="V27" s="4">
+        <v>1</v>
+      </c>
+      <c r="W27" s="4">
+        <v>1</v>
+      </c>
+      <c r="X27" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -2135,8 +2807,32 @@
       <c r="Q28" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R28" s="4">
+        <v>4</v>
+      </c>
+      <c r="S28" s="4">
+        <v>4</v>
+      </c>
+      <c r="T28" s="4">
+        <v>4</v>
+      </c>
+      <c r="U28" s="4">
+        <v>4</v>
+      </c>
+      <c r="V28" s="4">
+        <v>4</v>
+      </c>
+      <c r="W28" s="4">
+        <v>4</v>
+      </c>
+      <c r="X28" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2185,8 +2881,32 @@
       <c r="Q29" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R29" s="4">
+        <v>4</v>
+      </c>
+      <c r="S29" s="4">
+        <v>4</v>
+      </c>
+      <c r="T29" s="4">
+        <v>4</v>
+      </c>
+      <c r="U29" s="4">
+        <v>4</v>
+      </c>
+      <c r="V29" s="4">
+        <v>4</v>
+      </c>
+      <c r="W29" s="4">
+        <v>4</v>
+      </c>
+      <c r="X29" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2235,8 +2955,32 @@
       <c r="Q30" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R30" s="4">
+        <v>1</v>
+      </c>
+      <c r="S30" s="4">
+        <v>3</v>
+      </c>
+      <c r="T30" s="4">
+        <v>2</v>
+      </c>
+      <c r="U30" s="4">
+        <v>3</v>
+      </c>
+      <c r="V30" s="4">
+        <v>1</v>
+      </c>
+      <c r="W30" s="4">
+        <v>2</v>
+      </c>
+      <c r="X30" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -2285,8 +3029,32 @@
       <c r="Q31" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R31" s="4">
+        <v>7</v>
+      </c>
+      <c r="S31" s="4">
+        <v>1</v>
+      </c>
+      <c r="T31" s="4">
+        <v>0</v>
+      </c>
+      <c r="U31" s="4">
+        <v>1</v>
+      </c>
+      <c r="V31" s="4">
+        <v>0</v>
+      </c>
+      <c r="W31" s="4">
+        <v>0</v>
+      </c>
+      <c r="X31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -2335,8 +3103,32 @@
       <c r="Q32" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R32" s="4">
+        <v>14</v>
+      </c>
+      <c r="S32" s="4">
+        <v>11</v>
+      </c>
+      <c r="T32" s="4">
+        <v>10</v>
+      </c>
+      <c r="U32" s="4">
+        <v>11</v>
+      </c>
+      <c r="V32" s="4">
+        <v>10</v>
+      </c>
+      <c r="W32" s="4">
+        <v>10</v>
+      </c>
+      <c r="X32" s="4">
+        <v>9</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -2385,8 +3177,32 @@
       <c r="Q33" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R33" s="4">
+        <v>10</v>
+      </c>
+      <c r="S33" s="4">
+        <v>10</v>
+      </c>
+      <c r="T33" s="4">
+        <v>6</v>
+      </c>
+      <c r="U33" s="4">
+        <v>5</v>
+      </c>
+      <c r="V33" s="4">
+        <v>7</v>
+      </c>
+      <c r="W33" s="4">
+        <v>5</v>
+      </c>
+      <c r="X33" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2435,8 +3251,32 @@
       <c r="Q34" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R34" s="4">
+        <v>1</v>
+      </c>
+      <c r="S34" s="4">
+        <v>0</v>
+      </c>
+      <c r="T34" s="4">
+        <v>1</v>
+      </c>
+      <c r="U34" s="4">
+        <v>1</v>
+      </c>
+      <c r="V34" s="4">
+        <v>1</v>
+      </c>
+      <c r="W34" s="4">
+        <v>0</v>
+      </c>
+      <c r="X34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -2485,8 +3325,32 @@
       <c r="Q35" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R35" s="4">
+        <v>0</v>
+      </c>
+      <c r="S35" s="4">
+        <v>0</v>
+      </c>
+      <c r="T35" s="4">
+        <v>0</v>
+      </c>
+      <c r="U35" s="4">
+        <v>0</v>
+      </c>
+      <c r="V35" s="4">
+        <v>0</v>
+      </c>
+      <c r="W35" s="4">
+        <v>0</v>
+      </c>
+      <c r="X35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -2535,8 +3399,32 @@
       <c r="Q36" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R36" s="4">
+        <v>1</v>
+      </c>
+      <c r="S36" s="4">
+        <v>1</v>
+      </c>
+      <c r="T36" s="4">
+        <v>1</v>
+      </c>
+      <c r="U36" s="4">
+        <v>1</v>
+      </c>
+      <c r="V36" s="4">
+        <v>1</v>
+      </c>
+      <c r="W36" s="4">
+        <v>1</v>
+      </c>
+      <c r="X36" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2585,8 +3473,32 @@
       <c r="Q37" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R37" s="4">
+        <v>0</v>
+      </c>
+      <c r="S37" s="4">
+        <v>0</v>
+      </c>
+      <c r="T37" s="4">
+        <v>0</v>
+      </c>
+      <c r="U37" s="4">
+        <v>0</v>
+      </c>
+      <c r="V37" s="4">
+        <v>0</v>
+      </c>
+      <c r="W37" s="4">
+        <v>0</v>
+      </c>
+      <c r="X37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2635,8 +3547,32 @@
       <c r="Q38" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R38" s="4">
+        <v>59</v>
+      </c>
+      <c r="S38" s="4">
+        <v>0</v>
+      </c>
+      <c r="T38" s="4">
+        <v>0</v>
+      </c>
+      <c r="U38" s="4">
+        <v>0</v>
+      </c>
+      <c r="V38" s="4">
+        <v>0</v>
+      </c>
+      <c r="W38" s="4">
+        <v>0</v>
+      </c>
+      <c r="X38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2685,8 +3621,32 @@
       <c r="Q39" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R39" s="4">
+        <v>0</v>
+      </c>
+      <c r="S39" s="4">
+        <v>0</v>
+      </c>
+      <c r="T39" s="4">
+        <v>0</v>
+      </c>
+      <c r="U39" s="4">
+        <v>0</v>
+      </c>
+      <c r="V39" s="4">
+        <v>0</v>
+      </c>
+      <c r="W39" s="4">
+        <v>0</v>
+      </c>
+      <c r="X39" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2735,8 +3695,32 @@
       <c r="Q40" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R40" s="4">
+        <v>4</v>
+      </c>
+      <c r="S40" s="4">
+        <v>2</v>
+      </c>
+      <c r="T40" s="4">
+        <v>2</v>
+      </c>
+      <c r="U40" s="4">
+        <v>2</v>
+      </c>
+      <c r="V40" s="4">
+        <v>2</v>
+      </c>
+      <c r="W40" s="4">
+        <v>1</v>
+      </c>
+      <c r="X40" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2785,8 +3769,32 @@
       <c r="Q41" s="4">
         <v>35</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R41" s="4">
+        <v>1</v>
+      </c>
+      <c r="S41" s="4">
+        <v>0</v>
+      </c>
+      <c r="T41" s="4">
+        <v>0</v>
+      </c>
+      <c r="U41" s="4">
+        <v>0</v>
+      </c>
+      <c r="V41" s="4">
+        <v>0</v>
+      </c>
+      <c r="W41" s="4">
+        <v>0</v>
+      </c>
+      <c r="X41" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2835,8 +3843,32 @@
       <c r="Q42" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R42" s="4">
+        <v>1</v>
+      </c>
+      <c r="S42" s="4">
+        <v>1</v>
+      </c>
+      <c r="T42" s="4">
+        <v>1</v>
+      </c>
+      <c r="U42" s="4">
+        <v>1</v>
+      </c>
+      <c r="V42" s="4">
+        <v>1</v>
+      </c>
+      <c r="W42" s="4">
+        <v>1</v>
+      </c>
+      <c r="X42" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -2885,8 +3917,32 @@
       <c r="Q43" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R43" s="4">
+        <v>0</v>
+      </c>
+      <c r="S43" s="4">
+        <v>0</v>
+      </c>
+      <c r="T43" s="4">
+        <v>0</v>
+      </c>
+      <c r="U43" s="4">
+        <v>0</v>
+      </c>
+      <c r="V43" s="4">
+        <v>0</v>
+      </c>
+      <c r="W43" s="4">
+        <v>0</v>
+      </c>
+      <c r="X43" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -2935,8 +3991,32 @@
       <c r="Q44" s="4">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R44" s="4">
+        <v>0</v>
+      </c>
+      <c r="S44" s="4">
+        <v>1</v>
+      </c>
+      <c r="T44" s="4">
+        <v>1</v>
+      </c>
+      <c r="U44" s="4">
+        <v>1</v>
+      </c>
+      <c r="V44" s="4">
+        <v>1</v>
+      </c>
+      <c r="W44" s="4">
+        <v>1</v>
+      </c>
+      <c r="X44" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -2985,8 +4065,32 @@
       <c r="Q45" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R45" s="4">
+        <v>44</v>
+      </c>
+      <c r="S45" s="4">
+        <v>20</v>
+      </c>
+      <c r="T45" s="4">
+        <v>12</v>
+      </c>
+      <c r="U45" s="4">
+        <v>16</v>
+      </c>
+      <c r="V45" s="4">
+        <v>12</v>
+      </c>
+      <c r="W45" s="4">
+        <v>16</v>
+      </c>
+      <c r="X45" s="4">
+        <v>11</v>
+      </c>
+      <c r="Y45" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -3035,8 +4139,32 @@
       <c r="Q46" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R46" s="4">
+        <v>6</v>
+      </c>
+      <c r="S46" s="4">
+        <v>21</v>
+      </c>
+      <c r="T46" s="4">
+        <v>17</v>
+      </c>
+      <c r="U46" s="4">
+        <v>19</v>
+      </c>
+      <c r="V46" s="4">
+        <v>22</v>
+      </c>
+      <c r="W46" s="4">
+        <v>21</v>
+      </c>
+      <c r="X46" s="4">
+        <v>21</v>
+      </c>
+      <c r="Y46" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -3085,8 +4213,32 @@
       <c r="Q47" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R47" s="4">
+        <v>10</v>
+      </c>
+      <c r="S47" s="4">
+        <v>7</v>
+      </c>
+      <c r="T47" s="4">
+        <v>5</v>
+      </c>
+      <c r="U47" s="4">
+        <v>6</v>
+      </c>
+      <c r="V47" s="4">
+        <v>6</v>
+      </c>
+      <c r="W47" s="4">
+        <v>6</v>
+      </c>
+      <c r="X47" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -3135,8 +4287,32 @@
       <c r="Q48" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R48" s="4">
+        <v>59</v>
+      </c>
+      <c r="S48" s="4">
+        <v>58</v>
+      </c>
+      <c r="T48" s="4">
+        <v>54</v>
+      </c>
+      <c r="U48" s="4">
+        <v>51</v>
+      </c>
+      <c r="V48" s="4">
+        <v>52</v>
+      </c>
+      <c r="W48" s="4">
+        <v>54</v>
+      </c>
+      <c r="X48" s="4">
+        <v>48</v>
+      </c>
+      <c r="Y48" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -3185,8 +4361,32 @@
       <c r="Q49" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R49" s="4">
+        <v>1</v>
+      </c>
+      <c r="S49" s="4">
+        <v>1</v>
+      </c>
+      <c r="T49" s="4">
+        <v>1</v>
+      </c>
+      <c r="U49" s="4">
+        <v>1</v>
+      </c>
+      <c r="V49" s="4">
+        <v>2</v>
+      </c>
+      <c r="W49" s="4">
+        <v>2</v>
+      </c>
+      <c r="X49" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -3235,8 +4435,32 @@
       <c r="Q50" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R50" s="4">
+        <v>5</v>
+      </c>
+      <c r="S50" s="4">
+        <v>2</v>
+      </c>
+      <c r="T50" s="4">
+        <v>1</v>
+      </c>
+      <c r="U50" s="4">
+        <v>0</v>
+      </c>
+      <c r="V50" s="4">
+        <v>2</v>
+      </c>
+      <c r="W50" s="4">
+        <v>0</v>
+      </c>
+      <c r="X50" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -3285,8 +4509,32 @@
       <c r="Q51" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R51" s="4">
+        <v>0</v>
+      </c>
+      <c r="S51" s="4">
+        <v>1</v>
+      </c>
+      <c r="T51" s="4">
+        <v>1</v>
+      </c>
+      <c r="U51" s="4">
+        <v>1</v>
+      </c>
+      <c r="V51" s="4">
+        <v>1</v>
+      </c>
+      <c r="W51" s="4">
+        <v>1</v>
+      </c>
+      <c r="X51" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>40</v>
       </c>
@@ -3335,8 +4583,32 @@
       <c r="Q52" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R52" s="4">
+        <v>3</v>
+      </c>
+      <c r="S52" s="4">
+        <v>0</v>
+      </c>
+      <c r="T52" s="4">
+        <v>0</v>
+      </c>
+      <c r="U52" s="4">
+        <v>0</v>
+      </c>
+      <c r="V52" s="4">
+        <v>0</v>
+      </c>
+      <c r="W52" s="4">
+        <v>0</v>
+      </c>
+      <c r="X52" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>40</v>
       </c>
@@ -3385,8 +4657,32 @@
       <c r="Q53" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R53" s="4">
+        <v>5</v>
+      </c>
+      <c r="S53" s="4">
+        <v>0</v>
+      </c>
+      <c r="T53" s="4">
+        <v>0</v>
+      </c>
+      <c r="U53" s="4">
+        <v>0</v>
+      </c>
+      <c r="V53" s="4">
+        <v>2</v>
+      </c>
+      <c r="W53" s="4">
+        <v>1</v>
+      </c>
+      <c r="X53" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y53" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -3435,8 +4731,32 @@
       <c r="Q54" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R54" s="4">
+        <v>6</v>
+      </c>
+      <c r="S54" s="4">
+        <v>0</v>
+      </c>
+      <c r="T54" s="4">
+        <v>0</v>
+      </c>
+      <c r="U54" s="4">
+        <v>0</v>
+      </c>
+      <c r="V54" s="4">
+        <v>6</v>
+      </c>
+      <c r="W54" s="4">
+        <v>5</v>
+      </c>
+      <c r="X54" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y54" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>40</v>
       </c>
@@ -3485,8 +4805,32 @@
       <c r="Q55" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R55" s="4">
+        <v>4</v>
+      </c>
+      <c r="S55" s="4">
+        <v>0</v>
+      </c>
+      <c r="T55" s="4">
+        <v>0</v>
+      </c>
+      <c r="U55" s="4">
+        <v>0</v>
+      </c>
+      <c r="V55" s="4">
+        <v>3</v>
+      </c>
+      <c r="W55" s="4">
+        <v>1</v>
+      </c>
+      <c r="X55" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y55" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -3535,8 +4879,32 @@
       <c r="Q56" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R56" s="4">
+        <v>0</v>
+      </c>
+      <c r="S56" s="4">
+        <v>0</v>
+      </c>
+      <c r="T56" s="4">
+        <v>0</v>
+      </c>
+      <c r="U56" s="4">
+        <v>0</v>
+      </c>
+      <c r="V56" s="4">
+        <v>0</v>
+      </c>
+      <c r="W56" s="4">
+        <v>0</v>
+      </c>
+      <c r="X56" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>40</v>
       </c>
@@ -3585,8 +4953,32 @@
       <c r="Q57" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R57" s="4">
+        <v>0</v>
+      </c>
+      <c r="S57" s="4">
+        <v>0</v>
+      </c>
+      <c r="T57" s="4">
+        <v>0</v>
+      </c>
+      <c r="U57" s="4">
+        <v>0</v>
+      </c>
+      <c r="V57" s="4">
+        <v>0</v>
+      </c>
+      <c r="W57" s="4">
+        <v>0</v>
+      </c>
+      <c r="X57" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>40</v>
       </c>
@@ -3635,8 +5027,32 @@
       <c r="Q58" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R58" s="4">
+        <v>0</v>
+      </c>
+      <c r="S58" s="4">
+        <v>0</v>
+      </c>
+      <c r="T58" s="4">
+        <v>1</v>
+      </c>
+      <c r="U58" s="4">
+        <v>0</v>
+      </c>
+      <c r="V58" s="4">
+        <v>0</v>
+      </c>
+      <c r="W58" s="4">
+        <v>0</v>
+      </c>
+      <c r="X58" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -3685,8 +5101,32 @@
       <c r="Q59" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R59" s="4">
+        <v>0</v>
+      </c>
+      <c r="S59" s="4">
+        <v>0</v>
+      </c>
+      <c r="T59" s="4">
+        <v>1</v>
+      </c>
+      <c r="U59" s="4">
+        <v>0</v>
+      </c>
+      <c r="V59" s="4">
+        <v>0</v>
+      </c>
+      <c r="W59" s="4">
+        <v>0</v>
+      </c>
+      <c r="X59" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>40</v>
       </c>
@@ -3735,8 +5175,32 @@
       <c r="Q60" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R60" s="4">
+        <v>0</v>
+      </c>
+      <c r="S60" s="4">
+        <v>0</v>
+      </c>
+      <c r="T60" s="4">
+        <v>0</v>
+      </c>
+      <c r="U60" s="4">
+        <v>0</v>
+      </c>
+      <c r="V60" s="4">
+        <v>0</v>
+      </c>
+      <c r="W60" s="4">
+        <v>0</v>
+      </c>
+      <c r="X60" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>40</v>
       </c>
@@ -3785,8 +5249,32 @@
       <c r="Q61" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R61" s="4">
+        <v>0</v>
+      </c>
+      <c r="S61" s="4">
+        <v>0</v>
+      </c>
+      <c r="T61" s="4">
+        <v>0</v>
+      </c>
+      <c r="U61" s="4">
+        <v>0</v>
+      </c>
+      <c r="V61" s="4">
+        <v>0</v>
+      </c>
+      <c r="W61" s="4">
+        <v>0</v>
+      </c>
+      <c r="X61" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -3835,8 +5323,32 @@
       <c r="Q62" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R62" s="4">
+        <v>1</v>
+      </c>
+      <c r="S62" s="4">
+        <v>0</v>
+      </c>
+      <c r="T62" s="4">
+        <v>0</v>
+      </c>
+      <c r="U62" s="4">
+        <v>0</v>
+      </c>
+      <c r="V62" s="4">
+        <v>0</v>
+      </c>
+      <c r="W62" s="4">
+        <v>0</v>
+      </c>
+      <c r="X62" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>40</v>
       </c>
@@ -3885,8 +5397,32 @@
       <c r="Q63" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R63" s="4">
+        <v>4</v>
+      </c>
+      <c r="S63" s="4">
+        <v>2</v>
+      </c>
+      <c r="T63" s="4">
+        <v>2</v>
+      </c>
+      <c r="U63" s="4">
+        <v>2</v>
+      </c>
+      <c r="V63" s="4">
+        <v>3</v>
+      </c>
+      <c r="W63" s="4">
+        <v>2</v>
+      </c>
+      <c r="X63" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y63" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>40</v>
       </c>
@@ -3935,8 +5471,32 @@
       <c r="Q64" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R64" s="4">
+        <v>0</v>
+      </c>
+      <c r="S64" s="4">
+        <v>1</v>
+      </c>
+      <c r="T64" s="4">
+        <v>0</v>
+      </c>
+      <c r="U64" s="4">
+        <v>0</v>
+      </c>
+      <c r="V64" s="4">
+        <v>2</v>
+      </c>
+      <c r="W64" s="4">
+        <v>0</v>
+      </c>
+      <c r="X64" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>40</v>
       </c>
@@ -3985,8 +5545,32 @@
       <c r="Q65" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R65" s="4">
+        <v>2</v>
+      </c>
+      <c r="S65" s="4">
+        <v>1</v>
+      </c>
+      <c r="T65" s="4">
+        <v>1</v>
+      </c>
+      <c r="U65" s="4">
+        <v>2</v>
+      </c>
+      <c r="V65" s="4">
+        <v>1</v>
+      </c>
+      <c r="W65" s="4">
+        <v>1</v>
+      </c>
+      <c r="X65" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y65" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>40</v>
       </c>
@@ -4035,8 +5619,32 @@
       <c r="Q66" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R66" s="4">
+        <v>1</v>
+      </c>
+      <c r="S66" s="4">
+        <v>0</v>
+      </c>
+      <c r="T66" s="4">
+        <v>0</v>
+      </c>
+      <c r="U66" s="4">
+        <v>0</v>
+      </c>
+      <c r="V66" s="4">
+        <v>0</v>
+      </c>
+      <c r="W66" s="4">
+        <v>0</v>
+      </c>
+      <c r="X66" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>40</v>
       </c>
@@ -4085,8 +5693,32 @@
       <c r="Q67" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R67" s="4">
+        <v>2</v>
+      </c>
+      <c r="S67" s="4">
+        <v>2</v>
+      </c>
+      <c r="T67" s="4">
+        <v>1</v>
+      </c>
+      <c r="U67" s="4">
+        <v>1</v>
+      </c>
+      <c r="V67" s="4">
+        <v>2</v>
+      </c>
+      <c r="W67" s="4">
+        <v>2</v>
+      </c>
+      <c r="X67" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y67" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -4135,8 +5767,32 @@
       <c r="Q68" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R68" s="4">
+        <v>1</v>
+      </c>
+      <c r="S68" s="4">
+        <v>1</v>
+      </c>
+      <c r="T68" s="4">
+        <v>0</v>
+      </c>
+      <c r="U68" s="4">
+        <v>0</v>
+      </c>
+      <c r="V68" s="4">
+        <v>0</v>
+      </c>
+      <c r="W68" s="4">
+        <v>0</v>
+      </c>
+      <c r="X68" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>40</v>
       </c>
@@ -4185,8 +5841,32 @@
       <c r="Q69" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R69" s="4">
+        <v>2</v>
+      </c>
+      <c r="S69" s="4">
+        <v>2</v>
+      </c>
+      <c r="T69" s="4">
+        <v>2</v>
+      </c>
+      <c r="U69" s="4">
+        <v>2</v>
+      </c>
+      <c r="V69" s="4">
+        <v>2</v>
+      </c>
+      <c r="W69" s="4">
+        <v>2</v>
+      </c>
+      <c r="X69" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y69" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>40</v>
       </c>
@@ -4235,8 +5915,32 @@
       <c r="Q70" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R70" s="4">
+        <v>22</v>
+      </c>
+      <c r="S70" s="4">
+        <v>5</v>
+      </c>
+      <c r="T70" s="4">
+        <v>5</v>
+      </c>
+      <c r="U70" s="4">
+        <v>6</v>
+      </c>
+      <c r="V70" s="4">
+        <v>9</v>
+      </c>
+      <c r="W70" s="4">
+        <v>6</v>
+      </c>
+      <c r="X70" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y70" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>40</v>
       </c>
@@ -4285,8 +5989,32 @@
       <c r="Q71" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R71" s="4">
+        <v>4</v>
+      </c>
+      <c r="S71" s="4">
+        <v>8</v>
+      </c>
+      <c r="T71" s="4">
+        <v>6</v>
+      </c>
+      <c r="U71" s="4">
+        <v>5</v>
+      </c>
+      <c r="V71" s="4">
+        <v>6</v>
+      </c>
+      <c r="W71" s="4">
+        <v>5</v>
+      </c>
+      <c r="X71" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y71" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -4335,8 +6063,32 @@
       <c r="Q72" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R72" s="4">
+        <v>0</v>
+      </c>
+      <c r="S72" s="4">
+        <v>0</v>
+      </c>
+      <c r="T72" s="4">
+        <v>0</v>
+      </c>
+      <c r="U72" s="4">
+        <v>0</v>
+      </c>
+      <c r="V72" s="4">
+        <v>0</v>
+      </c>
+      <c r="W72" s="4">
+        <v>0</v>
+      </c>
+      <c r="X72" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>40</v>
       </c>
@@ -4385,8 +6137,32 @@
       <c r="Q73" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R73" s="4">
+        <v>21</v>
+      </c>
+      <c r="S73" s="4">
+        <v>18</v>
+      </c>
+      <c r="T73" s="4">
+        <v>19</v>
+      </c>
+      <c r="U73" s="4">
+        <v>16</v>
+      </c>
+      <c r="V73" s="4">
+        <v>16</v>
+      </c>
+      <c r="W73" s="4">
+        <v>14</v>
+      </c>
+      <c r="X73" s="4">
+        <v>13</v>
+      </c>
+      <c r="Y73" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -4399,8 +6175,32 @@
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -4413,8 +6213,32 @@
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R75">
+        <v>6</v>
+      </c>
+      <c r="S75">
+        <v>8</v>
+      </c>
+      <c r="T75">
+        <v>8</v>
+      </c>
+      <c r="U75">
+        <v>7</v>
+      </c>
+      <c r="V75">
+        <v>7</v>
+      </c>
+      <c r="W75">
+        <v>9</v>
+      </c>
+      <c r="X75">
+        <v>8</v>
+      </c>
+      <c r="Y75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -4427,8 +6251,32 @@
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -4441,8 +6289,32 @@
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -4455,8 +6327,32 @@
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -4470,7 +6366,7 @@
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -5150,7 +7046,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:O127">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="max"/>
@@ -5159,7 +7055,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5:Q73">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF4F81BD"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:X73">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF4F81BD"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y5:Y73">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="max"/>
@@ -5173,14 +7087,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B793163-D014-4CBA-A3D0-D38ACF957BD2}">
-  <dimension ref="A1:AJ87"/>
+  <dimension ref="A1:AR87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D3" sqref="D3:AB3"/>
       <selection pane="topRight" activeCell="D3" sqref="D3:AB3"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3:AB3"/>
-      <selection pane="bottomRight" activeCell="R1" sqref="R1:R1048576"/>
+      <selection pane="bottomRight" activeCell="Z1" sqref="Z1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5190,9 +7104,10 @@
     <col min="3" max="3" width="30.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5244,8 +7159,32 @@
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -5291,53 +7230,77 @@
       <c r="Q2" s="1">
         <v>14</v>
       </c>
-      <c r="U2">
+      <c r="R2" s="1">
+        <v>15</v>
+      </c>
+      <c r="S2" s="1">
+        <v>16</v>
+      </c>
+      <c r="T2" s="1">
+        <v>17</v>
+      </c>
+      <c r="U2" s="1">
+        <v>18</v>
+      </c>
+      <c r="V2" s="1">
+        <v>19</v>
+      </c>
+      <c r="W2" s="1">
+        <v>20</v>
+      </c>
+      <c r="X2" s="1">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>22</v>
+      </c>
+      <c r="AC2">
         <v>561</v>
       </c>
-      <c r="V2">
+      <c r="AD2">
         <v>379</v>
       </c>
-      <c r="W2">
+      <c r="AE2">
         <v>359</v>
       </c>
-      <c r="X2">
+      <c r="AF2">
         <v>409</v>
       </c>
-      <c r="Y2">
+      <c r="AG2">
         <v>366</v>
       </c>
-      <c r="Z2">
+      <c r="AH2">
         <v>355</v>
       </c>
-      <c r="AA2">
+      <c r="AI2">
         <v>309</v>
       </c>
-      <c r="AB2">
+      <c r="AJ2">
         <v>462</v>
       </c>
-      <c r="AC2">
+      <c r="AK2">
         <v>39</v>
       </c>
-      <c r="AD2">
+      <c r="AL2">
         <v>61</v>
       </c>
-      <c r="AE2">
+      <c r="AM2">
         <v>62</v>
       </c>
-      <c r="AF2">
+      <c r="AN2">
         <v>30</v>
       </c>
-      <c r="AG2">
+      <c r="AO2">
         <v>20</v>
       </c>
-      <c r="AH2">
+      <c r="AP2">
         <v>19</v>
       </c>
-      <c r="AI2">
+      <c r="AQ2">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -5399,53 +7362,84 @@
         <f>SUBTOTAL(109,Q5:Q1048576)</f>
         <v>19</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
+      <c r="R3" s="3">
+        <f t="shared" ref="R3:Y3" si="1">SUBTOTAL(109,R5:R1048576)</f>
+        <v>58</v>
+      </c>
+      <c r="S3" s="3">
+        <v>19</v>
+      </c>
+      <c r="T3" s="3">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="U3" s="3">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+      <c r="V3" s="3">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="W3" s="3">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="X3" s="3">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" si="1"/>
+        <v>168</v>
       </c>
       <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
         <v>296</v>
       </c>
-      <c r="AD3">
+      <c r="AL3">
         <v>303</v>
       </c>
-      <c r="AE3">
+      <c r="AM3">
         <v>284</v>
       </c>
-      <c r="AF3">
+      <c r="AN3">
         <v>265</v>
       </c>
-      <c r="AG3">
+      <c r="AO3">
         <v>273</v>
       </c>
-      <c r="AH3">
+      <c r="AP3">
         <v>322</v>
       </c>
-      <c r="AI3">
+      <c r="AQ3">
         <v>474</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -5497,57 +7491,81 @@
       <c r="Q4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="U4">
+      <c r="R4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC4">
         <v>561</v>
       </c>
-      <c r="V4">
+      <c r="AD4">
         <v>379</v>
       </c>
-      <c r="W4">
+      <c r="AE4">
         <v>359</v>
       </c>
-      <c r="X4">
+      <c r="AF4">
         <v>409</v>
       </c>
-      <c r="Y4">
+      <c r="AG4">
         <v>366</v>
       </c>
-      <c r="Z4">
+      <c r="AH4">
         <v>355</v>
       </c>
-      <c r="AA4">
+      <c r="AI4">
         <v>309</v>
       </c>
-      <c r="AB4">
+      <c r="AJ4">
         <v>462</v>
       </c>
-      <c r="AC4">
+      <c r="AK4">
         <v>335</v>
       </c>
-      <c r="AD4">
+      <c r="AL4">
         <v>364</v>
       </c>
-      <c r="AE4">
+      <c r="AM4">
         <v>346</v>
       </c>
-      <c r="AF4">
+      <c r="AN4">
         <v>295</v>
       </c>
-      <c r="AG4">
+      <c r="AO4">
         <v>293</v>
       </c>
-      <c r="AH4">
+      <c r="AP4">
         <v>341</v>
       </c>
-      <c r="AI4">
+      <c r="AQ4">
         <v>508</v>
       </c>
-      <c r="AJ4">
-        <f>SUM(U4:AI4)</f>
+      <c r="AR4">
+        <f>SUM(AC4:AQ4)</f>
         <v>5682</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -5590,8 +7608,18 @@
       <c r="Q5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4">
+        <v>1</v>
+      </c>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -5616,8 +7644,20 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="R6" s="4">
+        <v>1</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4">
+        <v>1</v>
+      </c>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -5660,8 +7700,28 @@
       <c r="Q7" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4">
+        <v>1</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1</v>
+      </c>
+      <c r="V7" s="4">
+        <v>1</v>
+      </c>
+      <c r="W7" s="4">
+        <v>1</v>
+      </c>
+      <c r="X7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -5688,8 +7748,28 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="R8" s="4">
+        <v>1</v>
+      </c>
+      <c r="S8" s="4">
+        <v>2</v>
+      </c>
+      <c r="T8" s="4">
+        <v>2</v>
+      </c>
+      <c r="U8" s="4">
+        <v>2</v>
+      </c>
+      <c r="V8" s="4">
+        <v>2</v>
+      </c>
+      <c r="W8" s="4">
+        <v>2</v>
+      </c>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -5718,8 +7798,20 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="R9" s="4">
+        <v>1</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -5756,8 +7848,16 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -5794,8 +7894,16 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -5844,8 +7952,16 @@
       <c r="Q12" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -5884,8 +8000,22 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="R13" s="4">
+        <v>2</v>
+      </c>
+      <c r="S13" s="4">
+        <v>3</v>
+      </c>
+      <c r="T13" s="4">
+        <v>1</v>
+      </c>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -5924,8 +8054,26 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4">
+        <v>2</v>
+      </c>
+      <c r="V14" s="4">
+        <v>12</v>
+      </c>
+      <c r="W14" s="4">
+        <v>16</v>
+      </c>
+      <c r="X14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -5962,8 +8110,20 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="R15" s="4">
+        <v>1</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4">
+        <v>2</v>
+      </c>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -6000,8 +8160,18 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4">
+        <v>5</v>
+      </c>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -6046,8 +8216,18 @@
       <c r="Q17" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17" s="4"/>
+      <c r="S17" s="4">
+        <v>1</v>
+      </c>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -6084,8 +8264,16 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -6112,8 +8300,16 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -6140,8 +8336,24 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R20" s="4">
+        <v>1</v>
+      </c>
+      <c r="S20" s="4">
+        <v>1</v>
+      </c>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -6190,8 +8402,16 @@
       <c r="Q21" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -6220,8 +8440,16 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -6270,8 +8498,24 @@
       <c r="Q23" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R23" s="4"/>
+      <c r="S23" s="4">
+        <v>1</v>
+      </c>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4">
+        <v>1</v>
+      </c>
+      <c r="X23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -6308,8 +8552,32 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R24" s="4">
+        <v>8</v>
+      </c>
+      <c r="S24" s="4">
+        <v>9</v>
+      </c>
+      <c r="T24" s="4">
+        <v>9</v>
+      </c>
+      <c r="U24" s="4">
+        <v>10</v>
+      </c>
+      <c r="V24" s="4">
+        <v>9</v>
+      </c>
+      <c r="W24" s="4">
+        <v>16</v>
+      </c>
+      <c r="X24" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -6346,8 +8614,16 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -6384,8 +8660,32 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R26" s="4">
+        <v>5</v>
+      </c>
+      <c r="S26" s="4">
+        <v>6</v>
+      </c>
+      <c r="T26" s="4">
+        <v>6</v>
+      </c>
+      <c r="U26" s="4">
+        <v>6</v>
+      </c>
+      <c r="V26" s="4">
+        <v>6</v>
+      </c>
+      <c r="W26" s="4">
+        <v>8</v>
+      </c>
+      <c r="X26" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -6412,8 +8712,30 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R27" s="4"/>
+      <c r="S27" s="4">
+        <v>6</v>
+      </c>
+      <c r="T27" s="4">
+        <v>6</v>
+      </c>
+      <c r="U27" s="4">
+        <v>6</v>
+      </c>
+      <c r="V27" s="4">
+        <v>6</v>
+      </c>
+      <c r="W27" s="4">
+        <v>6</v>
+      </c>
+      <c r="X27" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -6450,8 +8772,32 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R28" s="4">
+        <v>1</v>
+      </c>
+      <c r="S28" s="4">
+        <v>1</v>
+      </c>
+      <c r="T28" s="4">
+        <v>1</v>
+      </c>
+      <c r="U28" s="4">
+        <v>1</v>
+      </c>
+      <c r="V28" s="4">
+        <v>1</v>
+      </c>
+      <c r="W28" s="4">
+        <v>1</v>
+      </c>
+      <c r="X28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -6488,8 +8834,32 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R29" s="4">
+        <v>1</v>
+      </c>
+      <c r="S29" s="4">
+        <v>1</v>
+      </c>
+      <c r="T29" s="4">
+        <v>1</v>
+      </c>
+      <c r="U29" s="4">
+        <v>1</v>
+      </c>
+      <c r="V29" s="4">
+        <v>1</v>
+      </c>
+      <c r="W29" s="4">
+        <v>1</v>
+      </c>
+      <c r="X29" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -6530,8 +8900,18 @@
         <v>1</v>
       </c>
       <c r="Q30" s="4"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4">
+        <v>1</v>
+      </c>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -6566,8 +8946,18 @@
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4">
+        <v>1</v>
+      </c>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -6592,8 +8982,24 @@
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R32" s="4"/>
+      <c r="S32" s="4">
+        <v>1</v>
+      </c>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4">
+        <v>1</v>
+      </c>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -6630,8 +9036,16 @@
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -6656,8 +9070,16 @@
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -6704,8 +9126,16 @@
         <v>1</v>
       </c>
       <c r="Q35" s="4"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -6728,8 +9158,16 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -6778,8 +9216,16 @@
       <c r="Q37" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -6824,8 +9270,32 @@
       </c>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R38" s="4">
+        <v>7</v>
+      </c>
+      <c r="S38" s="4">
+        <v>41</v>
+      </c>
+      <c r="T38" s="4">
+        <v>57</v>
+      </c>
+      <c r="U38" s="4">
+        <v>48</v>
+      </c>
+      <c r="V38" s="4">
+        <v>36</v>
+      </c>
+      <c r="W38" s="4">
+        <v>40</v>
+      </c>
+      <c r="X38" s="4">
+        <v>46</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -6862,8 +9332,16 @@
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -6894,8 +9372,24 @@
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R40" s="4">
+        <v>2</v>
+      </c>
+      <c r="S40" s="4">
+        <v>1</v>
+      </c>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4">
+        <v>1</v>
+      </c>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -6932,8 +9426,30 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R41" s="4"/>
+      <c r="S41" s="4">
+        <v>1</v>
+      </c>
+      <c r="T41" s="4">
+        <v>1</v>
+      </c>
+      <c r="U41" s="4">
+        <v>1</v>
+      </c>
+      <c r="V41" s="4">
+        <v>1</v>
+      </c>
+      <c r="W41" s="4">
+        <v>1</v>
+      </c>
+      <c r="X41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -6972,8 +9488,16 @@
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -7012,8 +9536,30 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R43" s="4">
+        <v>1</v>
+      </c>
+      <c r="S43" s="4">
+        <v>1</v>
+      </c>
+      <c r="T43" s="4">
+        <v>1</v>
+      </c>
+      <c r="U43" s="4">
+        <v>1</v>
+      </c>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4">
+        <v>1</v>
+      </c>
+      <c r="X43" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -7054,8 +9600,16 @@
         <v>1</v>
       </c>
       <c r="Q44" s="4"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -7096,8 +9650,28 @@
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R45" s="4">
+        <v>1</v>
+      </c>
+      <c r="S45" s="4">
+        <v>3</v>
+      </c>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4">
+        <v>1</v>
+      </c>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4">
+        <v>15</v>
+      </c>
+      <c r="X45" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -7134,8 +9708,32 @@
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R46" s="4">
+        <v>5</v>
+      </c>
+      <c r="S46" s="4">
+        <v>2</v>
+      </c>
+      <c r="T46" s="4">
+        <v>6</v>
+      </c>
+      <c r="U46" s="4">
+        <v>8</v>
+      </c>
+      <c r="V46" s="4">
+        <v>5</v>
+      </c>
+      <c r="W46" s="4">
+        <v>4</v>
+      </c>
+      <c r="X46" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -7172,8 +9770,32 @@
       <c r="Q47" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R47" s="4">
+        <v>3</v>
+      </c>
+      <c r="S47" s="4">
+        <v>3</v>
+      </c>
+      <c r="T47" s="4">
+        <v>3</v>
+      </c>
+      <c r="U47" s="4">
+        <v>3</v>
+      </c>
+      <c r="V47" s="4">
+        <v>5</v>
+      </c>
+      <c r="W47" s="4">
+        <v>5</v>
+      </c>
+      <c r="X47" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y47" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -7210,8 +9832,24 @@
       <c r="Q48" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R48" s="4">
+        <v>6</v>
+      </c>
+      <c r="S48" s="4">
+        <v>1</v>
+      </c>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4">
+        <v>7</v>
+      </c>
+      <c r="V48" s="4">
+        <v>8</v>
+      </c>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -7254,8 +9892,18 @@
       <c r="Q49" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R49" s="4"/>
+      <c r="S49" s="4">
+        <v>1</v>
+      </c>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -7300,8 +9948,24 @@
       <c r="Q50" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4">
+        <v>1</v>
+      </c>
+      <c r="U50" s="4">
+        <v>1</v>
+      </c>
+      <c r="V50" s="4">
+        <v>3</v>
+      </c>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -7340,8 +10004,20 @@
       <c r="Q51" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R51" s="4">
+        <v>1</v>
+      </c>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="4"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>40</v>
       </c>
@@ -7374,8 +10050,22 @@
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R52" s="4">
+        <v>1</v>
+      </c>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4">
+        <v>1</v>
+      </c>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>40</v>
       </c>
@@ -7416,8 +10106,26 @@
       </c>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R53" s="4">
+        <v>1</v>
+      </c>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4">
+        <v>2</v>
+      </c>
+      <c r="U53" s="4">
+        <v>5</v>
+      </c>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4">
+        <v>1</v>
+      </c>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -7440,8 +10148,26 @@
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R54" s="4">
+        <v>1</v>
+      </c>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4">
+        <v>2</v>
+      </c>
+      <c r="U54" s="4">
+        <v>9</v>
+      </c>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4">
+        <v>2</v>
+      </c>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>40</v>
       </c>
@@ -7482,8 +10208,24 @@
       </c>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R55" s="4">
+        <v>2</v>
+      </c>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4">
+        <v>1</v>
+      </c>
+      <c r="U55" s="4">
+        <v>4</v>
+      </c>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -7518,8 +10260,16 @@
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>40</v>
       </c>
@@ -7562,8 +10312,26 @@
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4">
+        <v>6</v>
+      </c>
+      <c r="V57" s="4">
+        <v>4</v>
+      </c>
+      <c r="W57" s="4">
+        <v>2</v>
+      </c>
+      <c r="X57" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>40</v>
       </c>
@@ -7588,8 +10356,18 @@
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4">
+        <v>2</v>
+      </c>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -7634,8 +10412,26 @@
       </c>
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4">
+        <v>4</v>
+      </c>
+      <c r="V59" s="4">
+        <v>4</v>
+      </c>
+      <c r="W59" s="4">
+        <v>3</v>
+      </c>
+      <c r="X59" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>40</v>
       </c>
@@ -7678,8 +10474,16 @@
       </c>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>40</v>
       </c>
@@ -7726,8 +10530,16 @@
         <v>1</v>
       </c>
       <c r="Q61" s="4"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -7772,8 +10584,20 @@
       </c>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4">
+        <v>1</v>
+      </c>
+      <c r="U62" s="4">
+        <v>1</v>
+      </c>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>40</v>
       </c>
@@ -7822,8 +10646,20 @@
       <c r="Q63" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4">
+        <v>1</v>
+      </c>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>40</v>
       </c>
@@ -7860,8 +10696,32 @@
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R64" s="4">
+        <v>1</v>
+      </c>
+      <c r="S64" s="4">
+        <v>2</v>
+      </c>
+      <c r="T64" s="4">
+        <v>2</v>
+      </c>
+      <c r="U64" s="4">
+        <v>3</v>
+      </c>
+      <c r="V64" s="4">
+        <v>1</v>
+      </c>
+      <c r="W64" s="4">
+        <v>1</v>
+      </c>
+      <c r="X64" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>40</v>
       </c>
@@ -7898,8 +10758,32 @@
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R65" s="4">
+        <v>1</v>
+      </c>
+      <c r="S65" s="4">
+        <v>1</v>
+      </c>
+      <c r="T65" s="4">
+        <v>2</v>
+      </c>
+      <c r="U65" s="4">
+        <v>2</v>
+      </c>
+      <c r="V65" s="4">
+        <v>1</v>
+      </c>
+      <c r="W65" s="4">
+        <v>1</v>
+      </c>
+      <c r="X65" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>40</v>
       </c>
@@ -7936,8 +10820,30 @@
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R66" s="4"/>
+      <c r="S66" s="4">
+        <v>1</v>
+      </c>
+      <c r="T66" s="4">
+        <v>1</v>
+      </c>
+      <c r="U66" s="4">
+        <v>1</v>
+      </c>
+      <c r="V66" s="4">
+        <v>1</v>
+      </c>
+      <c r="W66" s="4">
+        <v>1</v>
+      </c>
+      <c r="X66" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>40</v>
       </c>
@@ -7974,8 +10880,28 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R67" s="4">
+        <v>1</v>
+      </c>
+      <c r="S67" s="4">
+        <v>1</v>
+      </c>
+      <c r="T67" s="4">
+        <v>2</v>
+      </c>
+      <c r="U67" s="4">
+        <v>2</v>
+      </c>
+      <c r="V67" s="4">
+        <v>1</v>
+      </c>
+      <c r="W67" s="4">
+        <v>1</v>
+      </c>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -8014,8 +10940,28 @@
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4">
+        <v>1</v>
+      </c>
+      <c r="U68" s="4">
+        <v>1</v>
+      </c>
+      <c r="V68" s="4">
+        <v>1</v>
+      </c>
+      <c r="W68" s="4">
+        <v>1</v>
+      </c>
+      <c r="X68" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>40</v>
       </c>
@@ -8038,8 +10984,16 @@
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>40</v>
       </c>
@@ -8078,8 +11032,30 @@
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R70" s="4"/>
+      <c r="S70" s="4">
+        <v>1</v>
+      </c>
+      <c r="T70" s="4">
+        <v>3</v>
+      </c>
+      <c r="U70" s="4">
+        <v>2</v>
+      </c>
+      <c r="V70" s="4">
+        <v>2</v>
+      </c>
+      <c r="W70" s="4">
+        <v>4</v>
+      </c>
+      <c r="X70" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>40</v>
       </c>
@@ -8104,8 +11080,18 @@
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4">
+        <v>2</v>
+      </c>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -8140,8 +11126,18 @@
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4">
+        <v>2</v>
+      </c>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>40</v>
       </c>
@@ -8164,8 +11160,28 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R73" s="4"/>
+      <c r="S73" s="4">
+        <v>4</v>
+      </c>
+      <c r="T73" s="4">
+        <v>1</v>
+      </c>
+      <c r="U73" s="4">
+        <v>4</v>
+      </c>
+      <c r="V73" s="4">
+        <v>4</v>
+      </c>
+      <c r="W73" s="4">
+        <v>2</v>
+      </c>
+      <c r="X73" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="4"/>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -8177,8 +11193,16 @@
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -8190,8 +11214,30 @@
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R75" s="4">
+        <v>2</v>
+      </c>
+      <c r="S75" s="4">
+        <v>2</v>
+      </c>
+      <c r="T75" s="4">
+        <v>1</v>
+      </c>
+      <c r="U75" s="4">
+        <v>1</v>
+      </c>
+      <c r="V75" s="4">
+        <v>1</v>
+      </c>
+      <c r="W75" s="4">
+        <v>1</v>
+      </c>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -8203,8 +11249,16 @@
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -8216,8 +11270,30 @@
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R77" s="4"/>
+      <c r="S77" s="4">
+        <v>1</v>
+      </c>
+      <c r="T77" s="4">
+        <v>1</v>
+      </c>
+      <c r="U77" s="4">
+        <v>1</v>
+      </c>
+      <c r="V77" s="4">
+        <v>1</v>
+      </c>
+      <c r="W77" s="4">
+        <v>1</v>
+      </c>
+      <c r="X77" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -8230,7 +11306,7 @@
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -8243,7 +11319,7 @@
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -8355,7 +11431,16 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:N87">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF4F81BD"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:Y77">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="max"/>
@@ -8364,7 +11449,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:Q73">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="max"/>
